--- a/nextop_engine/_element/data/private/KPP일별투입(10_17)_raw201712.xlsx
+++ b/nextop_engine/_element/data/private/KPP일별투입(10_17)_raw201712.xlsx
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2721" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2724" workbookViewId="0">
+      <selection activeCell="A2729" sqref="A2729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -22049,159 +22049,252 @@
         <v>108386</v>
       </c>
     </row>
-    <row r="2705" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2705" s="2">
         <v>43070</v>
       </c>
-    </row>
-    <row r="2706" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2705">
+        <v>126581</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2706" s="2">
         <v>43071</v>
       </c>
-    </row>
-    <row r="2707" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2706">
+        <v>61712</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2707" s="2">
         <v>43072</v>
       </c>
-    </row>
-    <row r="2708" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2707">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2708" s="2">
         <v>43073</v>
       </c>
-    </row>
-    <row r="2709" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2708">
+        <v>117679</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2709" s="2">
         <v>43074</v>
       </c>
-    </row>
-    <row r="2710" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2709">
+        <v>118881</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2710" s="2">
         <v>43075</v>
       </c>
-    </row>
-    <row r="2711" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2710">
+        <v>123408</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2711" s="2">
         <v>43076</v>
       </c>
-    </row>
-    <row r="2712" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2711">
+        <v>117471</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2712" s="2">
         <v>43077</v>
       </c>
-    </row>
-    <row r="2713" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2712">
+        <v>125621</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2713" s="2">
         <v>43078</v>
       </c>
-    </row>
-    <row r="2714" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2713">
+        <v>63480</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2714" s="2">
         <v>43079</v>
       </c>
-    </row>
-    <row r="2715" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2714">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2715" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="2716" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2715">
+        <v>112227</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2716" s="2">
         <v>43081</v>
       </c>
-    </row>
-    <row r="2717" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2716">
+        <v>121162</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2717" s="2">
         <v>43082</v>
       </c>
-    </row>
-    <row r="2718" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2717">
+        <v>118579</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2718" s="2">
         <v>43083</v>
       </c>
-    </row>
-    <row r="2719" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2718">
+        <v>111448</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2719" s="2">
         <v>43084</v>
       </c>
-    </row>
-    <row r="2720" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2719">
+        <v>125776</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2720" s="2">
         <v>43085</v>
       </c>
-    </row>
-    <row r="2721" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2720">
+        <v>65878</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2721" s="2">
         <v>43086</v>
       </c>
-    </row>
-    <row r="2722" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2721">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2722" s="2">
         <v>43087</v>
       </c>
-    </row>
-    <row r="2723" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2722">
+        <v>107359</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2723" s="2">
         <v>43088</v>
       </c>
-    </row>
-    <row r="2724" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2723">
+        <v>119787</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2724" s="2">
         <v>43089</v>
       </c>
-    </row>
-    <row r="2725" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2724">
+        <v>123916</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2725" s="2">
         <v>43090</v>
       </c>
-    </row>
-    <row r="2726" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2725">
+        <v>114498</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2726" s="2">
         <v>43091</v>
       </c>
-    </row>
-    <row r="2727" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2726">
+        <v>129262</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2727" s="2">
         <v>43092</v>
       </c>
-    </row>
-    <row r="2728" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2727">
+        <v>74005</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2728" s="2">
         <v>43093</v>
       </c>
-    </row>
-    <row r="2729" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2728">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2729" s="2">
         <v>43094</v>
       </c>
-    </row>
-    <row r="2730" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2729">
+        <v>26088</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2730" s="2">
         <v>43095</v>
       </c>
-    </row>
-    <row r="2731" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2730">
+        <v>126129</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2731" s="2">
         <v>43096</v>
       </c>
-    </row>
-    <row r="2732" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2731">
+        <v>133231</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2732" s="2">
         <v>43097</v>
       </c>
-    </row>
-    <row r="2733" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2732">
+        <v>122869</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2733" s="2">
         <v>43098</v>
       </c>
-    </row>
-    <row r="2734" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2733">
+        <v>124889</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2734" s="2">
         <v>43099</v>
       </c>
-    </row>
-    <row r="2735" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2734">
+        <v>61715</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2735" s="2">
         <v>43100</v>
+      </c>
+      <c r="B2735">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
